--- a/dados/ZEE_AP_basedados_sig.xlsx
+++ b/dados/ZEE_AP_basedados_sig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="420" windowWidth="17955" windowHeight="5685" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="420" windowWidth="17955" windowHeight="5685"/>
   </bookViews>
   <sheets>
     <sheet name="metadados" sheetId="2" r:id="rId1"/>
@@ -3367,9 +3367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H258" sqref="H258"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8449,7 +8449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IJ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="11" ySplit="1" topLeftCell="IG29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/dados/ZEE_AP_basedados_sig.xlsx
+++ b/dados/ZEE_AP_basedados_sig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="420" windowWidth="17955" windowHeight="5685" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="420" windowWidth="17955" windowHeight="5685"/>
   </bookViews>
   <sheets>
     <sheet name="metadados" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -19609,7 +19609,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:F21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="244">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -20262,9 +20262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14:C257"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="14" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61900,7 +61900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
